--- a/data_input/CR/CRR_May2023.xlsx
+++ b/data_input/CR/CRR_May2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A9FC1-071B-46AA-A166-E4E3410921B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A53767-5D68-445C-876B-E79A2DDC1E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="1050" windowWidth="14280" windowHeight="14415" tabRatio="601" firstSheet="9" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="9" activeTab="10" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="366">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1431,7 +1428,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1469,7 +1466,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1507,7 +1504,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2">
         <v>380002624</v>
@@ -2395,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -2404,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -2497,7 +2494,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2509,7 +2506,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>750769764</v>
@@ -2565,7 +2562,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -2574,7 +2571,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="5">
         <v>243438</v>
@@ -2667,7 +2664,7 @@
         <v>139</v>
       </c>
       <c r="AL3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -2679,7 +2676,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2732,7 +2729,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2779,7 +2776,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2817,7 +2814,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2834,97 +2831,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2995,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3146,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3199,7 +3196,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3246,7 +3243,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3287,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3319,7 +3316,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3330,97 +3327,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3485,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E13A5BC-81A9-424F-8AF7-7859F2334B8B}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3544,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3580,43 +3577,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3627,7 +3624,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="7">
         <v>610025253</v>
@@ -3636,7 +3633,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -3645,7 +3642,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5">
         <v>243531</v>
@@ -3654,7 +3651,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -3669,31 +3666,31 @@
         <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3711,7 +3708,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3723,13 +3720,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3744,31 +3741,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3776,13 +3773,13 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -3797,7 +3794,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -3812,31 +3809,31 @@
         <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" t="s">
-        <v>172</v>
-      </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
         <v>188</v>
       </c>
-      <c r="U3" t="s">
-        <v>189</v>
-      </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -3854,7 +3851,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -3866,13 +3863,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3887,31 +3884,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3919,13 +3916,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3934,13 +3931,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -3955,31 +3952,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
-        <v>189</v>
-      </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>2.29</v>
@@ -3997,7 +3994,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4006,13 +4003,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4027,31 +4024,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5">
         <v>750642364</v>
@@ -4068,7 +4065,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -4077,7 +4074,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="5">
         <v>243470</v>
@@ -4086,7 +4083,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4101,31 +4098,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>5.32</v>
@@ -4143,16 +4140,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4167,31 +4164,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6">
         <v>750428998</v>
@@ -4208,7 +4205,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -4217,7 +4214,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="5">
         <v>243531</v>
@@ -4226,7 +4223,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4241,31 +4238,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>7.12</v>
@@ -4283,40 +4280,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4324,7 +4321,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7">
         <v>750761041</v>
@@ -4333,7 +4330,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -4342,16 +4339,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -4366,31 +4363,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>4.1100000000000003</v>
@@ -4408,18 +4405,18 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8">
         <v>750897008</v>
@@ -4428,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -4437,16 +4434,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -4461,31 +4458,31 @@
         <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" t="s">
         <v>171</v>
       </c>
-      <c r="Q8" t="s">
-        <v>172</v>
-      </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X8">
         <v>2.06</v>
@@ -4503,96 +4500,96 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4670,7 @@
   <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4733,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4769,43 +4766,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4816,7 +4813,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>630004734</v>
@@ -4825,7 +4822,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4834,16 +4831,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -4858,31 +4855,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>3.08</v>
@@ -4900,7 +4897,7 @@
         <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4912,13 +4909,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4933,31 +4930,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4965,16 +4962,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4983,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="5">
         <v>243347</v>
@@ -4992,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -5007,31 +5004,31 @@
         <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -5049,7 +5046,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -5061,13 +5058,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -5082,31 +5079,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5114,13 +5111,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -5129,13 +5126,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -5150,31 +5147,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
         <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>10.92</v>
@@ -5192,7 +5189,7 @@
         <v>139</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5201,13 +5198,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5222,31 +5219,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5254,7 +5251,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="8">
         <v>750970748</v>
@@ -5263,7 +5260,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -5272,13 +5269,13 @@
         <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -5293,31 +5290,31 @@
         <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X5">
         <v>1.64</v>
@@ -5335,16 +5332,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5359,31 +5356,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5391,13 +5388,13 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -5406,13 +5403,13 @@
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5427,31 +5424,31 @@
         <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>70.19</v>
@@ -5469,40 +5466,40 @@
         <v>139</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5510,16 +5507,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -5528,16 +5525,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -5552,31 +5549,31 @@
         <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.18</v>
@@ -5594,18 +5591,18 @@
         <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8">
         <v>750771332</v>
@@ -5614,7 +5611,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -5623,16 +5620,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5647,31 +5644,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>1.28</v>
@@ -5689,15 +5686,15 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9">
         <v>750015248</v>
@@ -5706,7 +5703,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -5715,7 +5712,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="5">
         <v>243289</v>
@@ -5724,7 +5721,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -5739,31 +5736,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>3.09</v>
@@ -5781,24 +5778,24 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5813,7 +5810,7 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -5828,31 +5825,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
+        <v>187</v>
+      </c>
+      <c r="U10" t="s">
         <v>188</v>
       </c>
-      <c r="U10" t="s">
-        <v>189</v>
-      </c>
       <c r="V10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X10">
         <v>9.6999999999999993</v>
@@ -5870,24 +5867,24 @@
         <v>138</v>
       </c>
       <c r="AC10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -5896,16 +5893,16 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -5920,31 +5917,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X11">
         <v>6.97</v>
@@ -5962,15 +5959,15 @@
         <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12">
         <v>750910765</v>
@@ -5979,7 +5976,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -5988,16 +5985,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -6012,31 +6009,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" t="s">
         <v>188</v>
       </c>
-      <c r="U12" t="s">
-        <v>189</v>
-      </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X12">
         <v>1.91</v>
@@ -6054,15 +6051,15 @@
         <v>137</v>
       </c>
       <c r="AC12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13">
         <v>520004795</v>
@@ -6071,7 +6068,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -6080,7 +6077,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="5">
         <v>243438</v>
@@ -6089,7 +6086,7 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -6104,31 +6101,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X13">
         <v>2.4300000000000002</v>
@@ -6146,24 +6143,24 @@
         <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
         <v>306</v>
-      </c>
-      <c r="B14" t="s">
-        <v>307</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -6172,13 +6169,13 @@
         <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>56</v>
@@ -6193,31 +6190,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W14" t="s">
         <v>198</v>
-      </c>
-      <c r="W14" t="s">
-        <v>199</v>
       </c>
       <c r="X14">
         <v>1.43</v>
@@ -6235,15 +6232,15 @@
         <v>137</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15">
         <v>610024791</v>
@@ -6252,7 +6249,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -6261,7 +6258,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="5">
         <v>243501</v>
@@ -6270,7 +6267,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -6285,31 +6282,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>1.85</v>
@@ -6327,21 +6324,21 @@
         <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -6350,13 +6347,13 @@
         <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -6371,31 +6368,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X16">
         <v>1.27</v>
@@ -6413,15 +6410,15 @@
         <v>141</v>
       </c>
       <c r="AC16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17">
         <v>750572698</v>
@@ -6430,7 +6427,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
@@ -6439,7 +6436,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="5">
         <v>243470</v>
@@ -6448,7 +6445,7 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6463,31 +6460,31 @@
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -6505,24 +6502,24 @@
         <v>141</v>
       </c>
       <c r="AC17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -6531,13 +6528,13 @@
         <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -6552,31 +6549,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V18" t="s">
+        <v>197</v>
+      </c>
+      <c r="W18" t="s">
         <v>198</v>
-      </c>
-      <c r="W18" t="s">
-        <v>199</v>
       </c>
       <c r="X18">
         <v>1.77</v>
@@ -6594,21 +6591,21 @@
         <v>139</v>
       </c>
       <c r="AC18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN18" t="s">
         <v>219</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6617,13 +6614,13 @@
         <v>46</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>57</v>
@@ -6638,31 +6635,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>1.75</v>
@@ -6680,24 +6677,24 @@
         <v>141</v>
       </c>
       <c r="AC19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6706,16 +6703,16 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I20" t="s">
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
@@ -6730,31 +6727,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X20">
         <v>8.77</v>
@@ -6772,24 +6769,24 @@
         <v>138</v>
       </c>
       <c r="AC20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
         <v>333</v>
-      </c>
-      <c r="B21" t="s">
-        <v>334</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6798,16 +6795,16 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6822,31 +6819,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V21" t="s">
+        <v>197</v>
+      </c>
+      <c r="W21" t="s">
         <v>198</v>
-      </c>
-      <c r="W21" t="s">
-        <v>199</v>
       </c>
       <c r="X21">
         <v>4.38</v>
@@ -6864,21 +6861,21 @@
         <v>140</v>
       </c>
       <c r="AC21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -6893,7 +6890,7 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -6908,31 +6905,31 @@
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V22" t="s">
+        <v>197</v>
+      </c>
+      <c r="W22" t="s">
         <v>198</v>
-      </c>
-      <c r="W22" t="s">
-        <v>199</v>
       </c>
       <c r="X22">
         <v>1.7</v>
@@ -6950,24 +6947,24 @@
         <v>141</v>
       </c>
       <c r="AC22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -6976,13 +6973,13 @@
         <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
@@ -6997,31 +6994,31 @@
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
+        <v>197</v>
+      </c>
+      <c r="W23" t="s">
         <v>198</v>
-      </c>
-      <c r="W23" t="s">
-        <v>199</v>
       </c>
       <c r="X23">
         <v>2.63</v>
@@ -7039,24 +7036,24 @@
         <v>139</v>
       </c>
       <c r="AC23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" t="s">
         <v>340</v>
-      </c>
-      <c r="B24" t="s">
-        <v>341</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -7065,16 +7062,16 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
@@ -7089,31 +7086,31 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V24" t="s">
+        <v>197</v>
+      </c>
+      <c r="W24" t="s">
         <v>198</v>
-      </c>
-      <c r="W24" t="s">
-        <v>199</v>
       </c>
       <c r="X24">
         <v>2.91</v>
@@ -7131,15 +7128,15 @@
         <v>138</v>
       </c>
       <c r="AC24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25">
         <v>750252585</v>
@@ -7148,7 +7145,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -7157,7 +7154,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H25" s="5">
         <v>243317</v>
@@ -7166,7 +7163,7 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s">
         <v>56</v>
@@ -7181,31 +7178,31 @@
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X25">
         <v>1.3</v>
@@ -7223,15 +7220,15 @@
         <v>137</v>
       </c>
       <c r="AC25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B26">
         <v>750687079</v>
@@ -7240,7 +7237,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -7249,7 +7246,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H26" s="5">
         <v>243531</v>
@@ -7258,7 +7255,7 @@
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s">
         <v>57</v>
@@ -7273,31 +7270,31 @@
         <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V26" t="s">
+        <v>197</v>
+      </c>
+      <c r="W26" t="s">
         <v>198</v>
-      </c>
-      <c r="W26" t="s">
-        <v>199</v>
       </c>
       <c r="X26">
         <v>3.21</v>
@@ -7315,12 +7312,12 @@
         <v>137</v>
       </c>
       <c r="AC26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27">
         <v>610004658</v>
@@ -7329,7 +7326,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -7344,7 +7341,7 @@
         <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
         <v>57</v>
@@ -7359,31 +7356,31 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
+        <v>174</v>
+      </c>
+      <c r="R27" t="s">
         <v>175</v>
       </c>
-      <c r="R27" t="s">
-        <v>176</v>
-      </c>
       <c r="S27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V27" t="s">
+        <v>197</v>
+      </c>
+      <c r="W27" t="s">
         <v>198</v>
-      </c>
-      <c r="W27" t="s">
-        <v>199</v>
       </c>
       <c r="X27">
         <v>4.21</v>
@@ -7401,21 +7398,21 @@
         <v>140</v>
       </c>
       <c r="AC27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" t="s">
         <v>352</v>
-      </c>
-      <c r="B28" t="s">
-        <v>353</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -7424,13 +7421,13 @@
         <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s">
         <v>57</v>
@@ -7445,31 +7442,31 @@
         <v>76</v>
       </c>
       <c r="O28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V28" t="s">
+        <v>197</v>
+      </c>
+      <c r="W28" t="s">
         <v>198</v>
-      </c>
-      <c r="W28" t="s">
-        <v>199</v>
       </c>
       <c r="X28">
         <v>1.37</v>
@@ -7487,7 +7484,7 @@
         <v>137</v>
       </c>
       <c r="AC28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7568,8 +7565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7628,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7664,43 +7661,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7711,7 +7708,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>750920754</v>
@@ -7720,7 +7717,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -7729,7 +7726,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243530</v>
@@ -7738,7 +7735,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -7753,31 +7750,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>1.49</v>
@@ -7795,7 +7792,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7807,13 +7804,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7828,31 +7825,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7860,26 +7857,26 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7894,31 +7891,31 @@
         <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" t="s">
-        <v>172</v>
-      </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>1.26</v>
@@ -7936,7 +7933,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7948,13 +7945,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7969,31 +7966,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -8001,7 +7998,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>510000452</v>
@@ -8010,7 +8007,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -8019,7 +8016,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5">
         <v>243470</v>
@@ -8028,7 +8025,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -8043,31 +8040,31 @@
         <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>1.45</v>
@@ -8085,7 +8082,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -8094,13 +8091,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -8115,31 +8112,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -8147,13 +8144,13 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -8162,7 +8159,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5">
         <v>243470</v>
@@ -8171,7 +8168,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -8186,31 +8183,31 @@
         <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>0.57999999999999996</v>
@@ -8228,16 +8225,16 @@
         <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -8252,31 +8249,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -8284,7 +8281,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6">
         <v>750965269</v>
@@ -8293,7 +8290,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -8308,7 +8305,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -8323,31 +8320,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X6">
         <v>1.25</v>
@@ -8365,40 +8362,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8406,7 +8403,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7">
         <v>750102024</v>
@@ -8415,7 +8412,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -8424,16 +8421,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -8448,31 +8445,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.33</v>
@@ -8490,18 +8487,18 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8">
         <v>750867488</v>
@@ -8510,7 +8507,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -8519,7 +8516,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" s="5">
         <v>243438</v>
@@ -8528,7 +8525,7 @@
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -8543,31 +8540,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" t="s">
         <v>175</v>
       </c>
-      <c r="R8" t="s">
-        <v>176</v>
-      </c>
       <c r="S8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>0.44</v>
@@ -8585,15 +8582,15 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9">
         <v>540005516</v>
@@ -8602,7 +8599,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -8611,16 +8608,16 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -8635,31 +8632,31 @@
         <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S9" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" t="s">
         <v>185</v>
       </c>
-      <c r="T9" t="s">
-        <v>186</v>
-      </c>
       <c r="U9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -8677,21 +8674,21 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -8700,13 +8697,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -8721,31 +8718,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X10">
         <v>1.05</v>
@@ -8763,15 +8760,15 @@
         <v>141</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11">
         <v>750863661</v>
@@ -8780,7 +8777,7 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -8789,7 +8786,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="5">
         <v>243289</v>
@@ -8798,7 +8795,7 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -8813,31 +8810,31 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T11" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" t="s">
         <v>188</v>
       </c>
-      <c r="U11" t="s">
-        <v>189</v>
-      </c>
       <c r="V11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X11">
         <v>1.27</v>
@@ -8855,21 +8852,21 @@
         <v>141</v>
       </c>
       <c r="AC11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -8878,13 +8875,13 @@
         <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -8899,31 +8896,31 @@
         <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" t="s">
         <v>171</v>
       </c>
-      <c r="Q12" t="s">
-        <v>172</v>
-      </c>
       <c r="R12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>1.26</v>
@@ -8941,15 +8938,15 @@
         <v>137</v>
       </c>
       <c r="AC12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13">
         <v>750937992</v>
@@ -8958,7 +8955,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -8967,16 +8964,16 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -8991,31 +8988,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X13">
         <v>3.33</v>
@@ -9033,15 +9030,15 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14">
         <v>520000767</v>
@@ -9050,7 +9047,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -9059,16 +9056,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -9083,31 +9080,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W14" t="s">
         <v>198</v>
-      </c>
-      <c r="W14" t="s">
-        <v>199</v>
       </c>
       <c r="X14">
         <v>1.54</v>
@@ -9125,15 +9122,15 @@
         <v>137</v>
       </c>
       <c r="AC14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15">
         <v>730018109</v>
@@ -9142,7 +9139,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -9151,16 +9148,16 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -9175,31 +9172,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>13.73</v>
@@ -9217,62 +9214,62 @@
         <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9540,7 +9537,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9596,7 +9593,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9649,7 +9646,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9696,7 +9693,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9734,7 +9731,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9751,97 +9748,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10091,7 +10088,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>750945880</v>
@@ -10100,7 +10097,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -10109,10 +10106,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -10202,7 +10199,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10214,7 +10211,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10261,7 +10258,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3">
         <v>750765097</v>
@@ -10270,7 +10267,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -10279,10 +10276,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -10372,7 +10369,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10384,7 +10381,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10431,7 +10428,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4">
         <v>750285641</v>
@@ -10440,7 +10437,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -10449,10 +10446,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -10542,7 +10539,7 @@
         <v>137</v>
       </c>
       <c r="AL4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -10551,7 +10548,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10598,7 +10595,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10636,7 +10633,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10653,97 +10650,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10993,7 +10990,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2">
         <v>750930365</v>
@@ -11002,7 +10999,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -11011,10 +11008,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -11104,7 +11101,7 @@
         <v>137</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11116,7 +11113,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11163,7 +11160,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3">
         <v>750909137</v>
@@ -11172,7 +11169,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -11181,10 +11178,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -11274,7 +11271,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11286,7 +11283,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11339,7 +11336,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11386,7 +11383,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11424,7 +11421,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11441,97 +11438,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11783,7 +11780,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>750814617</v>
@@ -11792,7 +11789,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -11801,7 +11798,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>243470</v>
@@ -11894,7 +11891,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11906,7 +11903,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11953,7 +11950,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3">
         <v>750905107</v>
@@ -11962,7 +11959,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -11971,10 +11968,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -12058,13 +12055,13 @@
         <v>5.39</v>
       </c>
       <c r="AJ3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK3" t="s">
         <v>139</v>
       </c>
       <c r="AL3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12076,7 +12073,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12123,13 +12120,13 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -12138,7 +12135,7 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -12228,7 +12225,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -12237,7 +12234,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12281,7 +12278,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5">
         <v>610017233</v>
@@ -12290,7 +12287,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -12299,10 +12296,10 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
@@ -12392,13 +12389,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12433,7 +12430,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6">
         <v>750900254</v>
@@ -12442,7 +12439,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -12451,10 +12448,10 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
@@ -12544,13 +12541,13 @@
         <v>139</v>
       </c>
       <c r="AL6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12567,7 +12564,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7">
         <v>750897863</v>
@@ -12576,7 +12573,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -12585,7 +12582,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" s="5">
         <v>243317</v>
@@ -12678,15 +12675,15 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8">
         <v>730016736</v>
@@ -12695,7 +12692,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -12704,7 +12701,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H8" s="5">
         <v>243501</v>
@@ -12797,95 +12794,95 @@
         <v>141</v>
       </c>
       <c r="AL8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13135,7 +13132,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2">
         <v>750314936</v>
@@ -13144,7 +13141,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -13153,7 +13150,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="5">
         <v>243562</v>
@@ -13246,7 +13243,7 @@
         <v>137</v>
       </c>
       <c r="AL2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -13258,7 +13255,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -13305,7 +13302,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B3">
         <v>750910726</v>
@@ -13314,7 +13311,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -13323,7 +13320,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243562</v>
@@ -13416,7 +13413,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -13428,7 +13425,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -13481,7 +13478,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -13528,7 +13525,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -13566,7 +13563,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -13583,97 +13580,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13910,7 +13907,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13957,7 +13954,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -14001,7 +13998,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -14039,7 +14036,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -14071,7 +14068,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -14085,97 +14082,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14394,13 +14391,13 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -14409,7 +14406,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -14487,7 +14484,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -14499,7 +14496,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -14546,7 +14543,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -14590,7 +14587,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -14628,7 +14625,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -14660,7 +14657,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -14674,97 +14671,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -15012,7 +15009,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -15068,7 +15065,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -15121,7 +15118,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -15168,7 +15165,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -15203,7 +15200,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -15217,97 +15214,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
